--- a/Final Project/Task.xlsx
+++ b/Final Project/Task.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Project gr\Web\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\finalproject\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D7CFBC-D67F-4DAC-919E-B68029008B39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F45837-0203-481F-A759-CD867C9016F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Task</t>
   </si>
@@ -52,9 +52,6 @@
     <t>File name</t>
   </si>
   <si>
-    <t>Đăng kí, Đăng nhập</t>
-  </si>
-  <si>
     <t>Khôi phục mật khẩu</t>
   </si>
   <si>
@@ -110,6 +107,39 @@
   </si>
   <si>
     <t>Author</t>
+  </si>
+  <si>
+    <t>Connect database</t>
+  </si>
+  <si>
+    <t>connection.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Đăng nhập</t>
+  </si>
+  <si>
+    <t>Đăng kí</t>
+  </si>
+  <si>
+    <t>register.php</t>
+  </si>
+  <si>
+    <t>login.php</t>
+  </si>
+  <si>
+    <t>lostpassword.php</t>
+  </si>
+  <si>
+    <t>Thêm account, sửa account trên db</t>
+  </si>
+  <si>
+    <t>processaccount.php</t>
+  </si>
+  <si>
+    <t>test function</t>
+  </si>
+  <si>
+    <t>test.php</t>
   </si>
 </sst>
 </file>
@@ -131,7 +161,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +198,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -222,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -236,6 +272,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,15 +554,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -543,60 +582,66 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5"/>
+      <c r="A2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="9"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="F2" s="1"/>
-      <c r="G2" t="s">
-        <v>3</v>
+      <c r="D2" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1"/>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="7"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="F5" s="3"/>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="F6" s="4"/>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -604,11 +649,11 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -616,7 +661,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -624,7 +669,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -632,7 +677,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -640,7 +685,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -648,7 +693,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -656,7 +701,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -664,7 +709,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -672,7 +717,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -680,31 +725,88 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="6" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -723,13 +825,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
